--- a/scheme/Conseg/issues_metadados_conseg.xlsx
+++ b/scheme/Conseg/issues_metadados_conseg.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="0_SCHEMA_METADATA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1_ISSUES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2_SCHEME_MEASURES" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3_MODEL_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4_MODEL_METRICS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SCHEME_MEASURES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="METADATA_ISSUES" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="METADATA_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="METADATA_METRICS" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9024,7 +9024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9035,4098 +9035,94 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rule</t>
+          <t>Indicator</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>desc</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>owner</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>column</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>constraint_name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>length</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>limit</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD06</t>
+          <t>MQMS01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with plural names</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TESTES_GESTORES</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Total number of tables</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DESATIVADOS_AD</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MATRICULA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>Total number of columns</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MLOG$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SNAPTIME$$</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>Total number of primary key</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MLOG$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>Total number of foreign key</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MLOG$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>OLD_NEW$$</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MLOG$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MLOG$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>XID$$</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SNAPTIME$$</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>OLD_NEW$$</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>XID$$</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>RUPD$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>RUPD$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>SNAPID</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>RUPD$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>RUPD$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>RUPD$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>SNAPID</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>RUPD$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>TESTES_GESTORES</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SISTEMA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>TESTES_GESTORES</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NOME</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>USUARIOS_CEGET</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NOME</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>USUARIOS_CEGET</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>LOTACAO</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>ACESSO</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SEQ_ACESSO</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>ACESSO</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NOM_USUARIO_NT</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>ACESSO</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NOM_MAQUINA_NT</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>CARGO_PERMITIDO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>SEQ_CARGO_FUNCAO</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>DESATIVADOS_AD</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>MATRICULA</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>MLOG$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NOM_SISTEMA</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>MLOG$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>SNAPTIME$$</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>MLOG$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>MLOG$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>OLD_NEW$$</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>MLOG$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>MLOG$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>XID$$</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>SNAPTIME$$</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>OLD_NEW$$</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>XID$$</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>SEQ_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>SEQ_ACESSO</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>NOM_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>DAT_ATIVACAO</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NOM_GRUPO_REDE</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>DAT_DESATIVACAO</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>RUPD$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NOM_SISTEMA</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>RUPD$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>RUPD$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>SNAPID</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>RUPD$_SISTEMA</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>RUPD$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>RUPD$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>RUPD$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>SNAPID</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>RUPD$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>SOLICITACAO</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>COD_ORGAO_LOCAL_SOLICITADO</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>SOLICITACAO</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>COD_ORGAO_LOCAL_SOLICITANTE</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>SEQ_SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>TIP_SOLICITACAO</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>DAT_SOLICITACAO</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>SEQ_ACESSO</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>SEQ_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>NOM_SENHA_REDE</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>DAT_ULTIMA_MUDANCA_STATUS</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>TXT_OBSERVACAO_SOLICITANTE</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>TXT_OBSERVACAO_GESTOR</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>TESTES_GESTORES</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>SISTEMA</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>TESTES_GESTORES</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>NOME</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>TRANSACAO</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>DSC_PARAMETROS</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>USUARIO</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>SEQ_CARGO_FUNCAO_CARREIRA</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>USUARIO</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>SEQ_CARGO_FUNCAO_COMISSAO</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>USUARIO</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>STA_NOVO_REDE</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>USUARIO</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>STA_NOVO_BANCO</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>USUARIO</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>DAT_EXPIRACAO_SENHA</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>USUARIO</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>NOM_EMAIL</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>USUARIO_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>SEQ_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>USUARIO_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>DAT_CONCESSAO_RECURSO</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>USUARIO_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>SEQ_ACESSO</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>USUARIO_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>DAT_DESATIVACAO_RECURSO</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>USUARIOS_CEGET</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>NOME</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>USUARIOS_CEGET</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>NUM_CPF</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>USUARIOS_CEGET</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>LOTACAO</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>VW_USUARIO_CHANGEPOINT</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>NOM_USUARIO</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>VW_USUARIO_CHANGEPOINT</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>NOM_EMAIL</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>ACESSO</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>SEQ_ACESSO</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>ACESSO_PK</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>CARGO_PERMITIDO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>NOM_GRUPO</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>CAR_PER_PK</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>CARGO_PERMITIDO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>SEQ_CARGO_FUNCAO</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>CAR_PER_PK</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRUPO</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>NOM_GRUPO</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>GRUPO_PK</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>SEQ_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>RECURSO_PK</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>SISTEMA</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>NOM_SISTEMA</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>SISTEMA_PK</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>SOLICITACAO</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>SEQ_SOLICITACAO</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>SOLICIT_PK</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>SEQ_SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>SR_PK</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>TRANSACAO</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>NOM_SISTEMA</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>TRANSACAO_PK</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>TRANSACAO</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>NOM_TRANSACAO</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>TRANSACAO_PK</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>TRANSACAO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>DAT_INCLUSAO_GRUPO</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>TRANS_GRUP_PK</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>TRANSACAO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>NOM_GRUPO</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>TRANS_GRUP_PK</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>TRANSACAO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>NOM_SISTEMA</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>TRANS_GRUP_PK</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>TRANSACAO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>NOM_TRANSACAO</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>TRANS_GRUP_PK</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>USUARIO</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>USUARIO_PK</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>USUARIO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>DAT_INCLUSAO_USUARIO</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>USU_GRUPO_PK</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>USUARIO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>USU_GRUPO_PK</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>USUARIO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>NOM_GRUPO</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>USU_GRUPO_PK</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>USUARIO_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>URD_PK</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>USUARIO_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>SEQ_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>URD_PK</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>USUARIO_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>DAT_CONCESSAO_RECURSO</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>URD_PK</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>ACESSO</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>NOM_SISTEMA</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>ACESSO_SISTEMA_FK</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>ACESSO</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>ACESSO_USUARIO_FK</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>CARGO_PERMITIDO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>NOM_GRUPO</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>CAR_PER_GRUPO_FK</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>CARGO_PERMITIDO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>SEQ_CARGO_FUNCAO</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>CAR_PER_CAR_FUN_FK</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRUPO</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>NOM_SISTEMA</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>GRUPO_SISTEMA_FK</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>SOLICITACAO</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO_SOLICITANTE</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>SOLICIT_USUARIO_SOLICITANTE_FK</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>SOLICITACAO</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO_SOLICITADO</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>SOLICIT_USUARIO_SOLICITADO_FK</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>SOLICITACAO</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>NOM_GRUPO_ATUAL</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>SOLICIT_GRUPO_ATUAL_FK</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>SOLICITACAO</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>NOM_GRUPO_ATENDIDO</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>SOLICIT_GRUPO_ATENDIDO_FK</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>SOLICITACAO</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO_GESTOR</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>SOLICIT_USUARIO_GESTOR_FK</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>SOLICITACAO</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>NOM_SISTEMA</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>SOLICIT_SISTEMA_FK</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>SOLICITACAO</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>NOM_GRUPO_SOLICITADO</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>SOLICIT_GRUPO_SOLICITADO_FK</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO_SOLICITANTE</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>SR_USUARIO_FK</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO_SOLICITADO</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>SR_USUARIO_SOLICITADO_FK</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO_GESTOR</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>SR_USUARIO_GESTOR_FK</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>SOLICITACAO_REDE</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>SEQ_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>SR_RECURSO_FK</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>TRANSACAO</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>NOM_SISTEMA</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>TRANSACAO_SISTEMA_FK</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>TRANSACAO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>NOM_GRUPO</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>TRANS_GRUP_GRUPO_FK</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>TRANSACAO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>NOM_SISTEMA</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>TRANS_GRUP_TRANSACAO_FK</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>TRANSACAO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>NOM_TRANSACAO</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>TRANS_GRUP_TRANSACAO_FK</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>USUARIO</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>SEQ_CARGO_FUNCAO_CARREIRA</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>USUARIO_CAR_FUN_CARREIRA_FK</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>USUARIO</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>SEQ_CARGO_FUNCAO_COMISSAO</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>USUARIO_CAR_FUN_COMISSAO_FK</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>USUARIO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>USU_GRUPO_USUARIO_FK</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>USUARIO_GRUPO</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>NOM_GRUPO</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>USU_GRUPO_GRUPO_FK</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>USUARIO_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>URD_USUARIO_FK</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>CONSEG</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>USUARIO_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>SEQ_RECURSO_REDE</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>URD_RECURSO_FK</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
+          <t>Total number of unique key</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13139,7 +9135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13150,94 +9146,4098 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indicator</t>
+          <t>rule</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>desc</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>owner</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>column</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>constraint_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>limit</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD01</t>
+          <t>MQME10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
+          <t>Total number of tables with plural names</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TESTES_GESTORES</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD02</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>137</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DESATIVADOS_AD</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MATRICULA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD03</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of primary key</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MLOG$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SNAPTIME$$</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMD04</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total number of foreign key</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MLOG$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMD05</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total number of unique key</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MLOG$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OLD_NEW$$</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MLOG$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MLOG$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>XID$$</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SNAPTIME$$</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>OLD_NEW$$</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>XID$$</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>RUPD$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>RUPD$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SNAPID</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>RUPD$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>RUPD$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>RUPD$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SNAPID</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>RUPD$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TESTES_GESTORES</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SISTEMA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TESTES_GESTORES</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>USUARIOS_CEGET</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>USUARIOS_CEGET</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LOTACAO</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ACESSO</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SEQ_ACESSO</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ACESSO</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NOM_USUARIO_NT</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ACESSO</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NOM_MAQUINA_NT</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CARGO_PERMITIDO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SEQ_CARGO_FUNCAO</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DESATIVADOS_AD</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MATRICULA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MLOG$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NOM_SISTEMA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MLOG$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SNAPTIME$$</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MLOG$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MLOG$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>OLD_NEW$$</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>MLOG$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>MLOG$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>XID$$</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SNAPTIME$$</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>OLD_NEW$$</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>XID$$</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SEQ_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SEQ_ACESSO</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NOM_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>DAT_ATIVACAO</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NOM_GRUPO_REDE</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>DAT_DESATIVACAO</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>RUPD$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NOM_SISTEMA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>RUPD$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>RUPD$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SNAPID</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>RUPD$_SISTEMA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>RUPD$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>RUPD$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>RUPD$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SNAPID</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>RUPD$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>SOLICITACAO</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>COD_ORGAO_LOCAL_SOLICITADO</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SOLICITACAO</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>COD_ORGAO_LOCAL_SOLICITANTE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SEQ_SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TIP_SOLICITACAO</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>DAT_SOLICITACAO</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SEQ_ACESSO</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SEQ_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NOM_SENHA_REDE</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>DAT_ULTIMA_MUDANCA_STATUS</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>TXT_OBSERVACAO_SOLICITANTE</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>TXT_OBSERVACAO_GESTOR</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>TESTES_GESTORES</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>SISTEMA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>TESTES_GESTORES</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>TRANSACAO</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>DSC_PARAMETROS</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>USUARIO</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SEQ_CARGO_FUNCAO_CARREIRA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>USUARIO</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>SEQ_CARGO_FUNCAO_COMISSAO</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>USUARIO</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>STA_NOVO_REDE</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>USUARIO</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>STA_NOVO_BANCO</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>USUARIO</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>DAT_EXPIRACAO_SENHA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>USUARIO</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NOM_EMAIL</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>USUARIO_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>SEQ_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>USUARIO_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>DAT_CONCESSAO_RECURSO</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>USUARIO_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>SEQ_ACESSO</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>USUARIO_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>DAT_DESATIVACAO_RECURSO</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>USUARIOS_CEGET</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>USUARIOS_CEGET</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NUM_CPF</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>USUARIOS_CEGET</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>LOTACAO</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>VW_USUARIO_CHANGEPOINT</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NOM_USUARIO</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VW_USUARIO_CHANGEPOINT</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NOM_EMAIL</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ACESSO</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>SEQ_ACESSO</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>ACESSO_PK</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CARGO_PERMITIDO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NOM_GRUPO</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>CAR_PER_PK</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>CARGO_PERMITIDO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>SEQ_CARGO_FUNCAO</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>CAR_PER_PK</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRUPO</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NOM_GRUPO</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>GRUPO_PK</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>SEQ_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>RECURSO_PK</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>SISTEMA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NOM_SISTEMA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>SISTEMA_PK</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SOLICITACAO</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>SEQ_SOLICITACAO</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>SOLICIT_PK</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>SEQ_SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>SR_PK</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>TRANSACAO</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NOM_SISTEMA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>TRANSACAO_PK</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>TRANSACAO</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NOM_TRANSACAO</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>TRANSACAO_PK</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>TRANSACAO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>DAT_INCLUSAO_GRUPO</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>TRANS_GRUP_PK</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>TRANSACAO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NOM_GRUPO</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>TRANS_GRUP_PK</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>TRANSACAO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NOM_SISTEMA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>TRANS_GRUP_PK</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>TRANSACAO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>NOM_TRANSACAO</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>TRANS_GRUP_PK</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>USUARIO</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>USUARIO_PK</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>USUARIO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>DAT_INCLUSAO_USUARIO</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>USU_GRUPO_PK</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>USUARIO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>USU_GRUPO_PK</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>USUARIO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NOM_GRUPO</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>USU_GRUPO_PK</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>USUARIO_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>URD_PK</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>USUARIO_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>SEQ_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>URD_PK</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>USUARIO_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>DAT_CONCESSAO_RECURSO</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>URD_PK</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>ACESSO</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>NOM_SISTEMA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>ACESSO_SISTEMA_FK</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>ACESSO</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>ACESSO_USUARIO_FK</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>CARGO_PERMITIDO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>NOM_GRUPO</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>CAR_PER_GRUPO_FK</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>CARGO_PERMITIDO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>SEQ_CARGO_FUNCAO</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>CAR_PER_CAR_FUN_FK</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRUPO</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>NOM_SISTEMA</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>GRUPO_SISTEMA_FK</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>SOLICITACAO</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO_SOLICITANTE</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>SOLICIT_USUARIO_SOLICITANTE_FK</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>SOLICITACAO</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO_SOLICITADO</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>SOLICIT_USUARIO_SOLICITADO_FK</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>SOLICITACAO</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>NOM_GRUPO_ATUAL</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>SOLICIT_GRUPO_ATUAL_FK</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>SOLICITACAO</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>NOM_GRUPO_ATENDIDO</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>SOLICIT_GRUPO_ATENDIDO_FK</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>SOLICITACAO</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO_GESTOR</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>SOLICIT_USUARIO_GESTOR_FK</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>SOLICITACAO</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>NOM_SISTEMA</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>SOLICIT_SISTEMA_FK</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>SOLICITACAO</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>NOM_GRUPO_SOLICITADO</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>SOLICIT_GRUPO_SOLICITADO_FK</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO_SOLICITANTE</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>SR_USUARIO_FK</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO_SOLICITADO</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>SR_USUARIO_SOLICITADO_FK</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO_GESTOR</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>SR_USUARIO_GESTOR_FK</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>SOLICITACAO_REDE</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>SEQ_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>SR_RECURSO_FK</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>TRANSACAO</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>NOM_SISTEMA</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>TRANSACAO_SISTEMA_FK</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>TRANSACAO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>NOM_GRUPO</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>TRANS_GRUP_GRUPO_FK</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>TRANSACAO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>NOM_SISTEMA</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>TRANS_GRUP_TRANSACAO_FK</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>TRANSACAO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>NOM_TRANSACAO</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>TRANS_GRUP_TRANSACAO_FK</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>USUARIO</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>SEQ_CARGO_FUNCAO_CARREIRA</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>USUARIO_CAR_FUN_CARREIRA_FK</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>USUARIO</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>SEQ_CARGO_FUNCAO_COMISSAO</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>USUARIO_CAR_FUN_COMISSAO_FK</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>USUARIO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>USU_GRUPO_USUARIO_FK</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>USUARIO_GRUPO</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>NOM_GRUPO</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>USU_GRUPO_GRUPO_FK</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>USUARIO_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>URD_USUARIO_FK</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>CONSEG</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>USUARIO_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>SEQ_RECURSO_REDE</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>URD_RECURSO_FK</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13250,7 +13250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13278,76 +13278,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD06</t>
+          <t>MQME00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with plural names</t>
+          <t>Total number of columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMEA1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD10</t>
+          <t>MQMEA2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of tables with column names without comments</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -13361,7 +13331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13389,29 +13359,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQMD01</t>
+          <t>IQME01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Table names in singular</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>95.00%</t>
+          <t>56.20%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQMD02</t>
+          <t>IQME02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Table names with recommended size</t>
+          <t>Columns with data type</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -13423,29 +13393,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQMD03</t>
+          <t>IQME03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Table columns with correct prefixes</t>
+          <t>Length-required columns with data length</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>84.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQMD04</t>
+          <t>IQME04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Table columns with recommend size</t>
+          <t>NUMBER columns with valid scale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -13457,66 +13427,49 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQMD05</t>
+          <t>IQME05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Table columns with comments</t>
+          <t>Columns with valid num_distinct</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>56.20%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQMD06</t>
+          <t>IQME06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Table with standard PK prefixes</t>
+          <t>Columns with valid num_nulls</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQMD07</t>
+          <t>IQME07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Table with standard FK prefixes</t>
+          <t>Columns with valid density</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>IQMD08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Table with standard UK prefixes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>

--- a/scheme/Conseg/issues_metadados_conseg.xlsx
+++ b/scheme/Conseg/issues_metadados_conseg.xlsx
@@ -9052,7 +9052,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMS01</t>
+          <t>MQME001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -9067,7 +9067,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMS02</t>
+          <t>MQME002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -9082,7 +9082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMS03</t>
+          <t>MQME003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -9097,7 +9097,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMS04</t>
+          <t>MQME004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -9112,7 +9112,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMS05</t>
+          <t>MQME005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -9188,7 +9188,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -9214,7 +9214,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -9244,7 +9244,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -9274,7 +9274,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -9304,7 +9304,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -9334,7 +9334,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -9364,7 +9364,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -9394,7 +9394,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -9424,7 +9424,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -9454,7 +9454,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -9484,7 +9484,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -9514,7 +9514,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -9544,7 +9544,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -9574,7 +9574,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -9604,7 +9604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -9634,7 +9634,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -9664,7 +9664,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -9694,7 +9694,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -9724,7 +9724,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -9754,7 +9754,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -9784,7 +9784,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -9814,7 +9814,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -9844,7 +9844,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -9874,7 +9874,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -9904,7 +9904,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -9934,7 +9934,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -9964,7 +9964,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -9994,7 +9994,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -10024,7 +10024,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -10054,7 +10054,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -10084,7 +10084,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -10114,7 +10114,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -10144,7 +10144,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -10174,7 +10174,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -10204,7 +10204,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -10234,7 +10234,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -10264,7 +10264,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -10294,7 +10294,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -10324,7 +10324,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -10354,7 +10354,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -10384,7 +10384,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -10414,7 +10414,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -10444,7 +10444,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -10474,7 +10474,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -10504,7 +10504,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -10534,7 +10534,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -10564,7 +10564,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -10594,7 +10594,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -10624,7 +10624,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -10654,7 +10654,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10684,7 +10684,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10714,7 +10714,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10744,7 +10744,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10774,7 +10774,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10804,7 +10804,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10834,7 +10834,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -10864,7 +10864,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -10894,7 +10894,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -10924,7 +10924,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -10954,7 +10954,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -10984,7 +10984,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -11014,7 +11014,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -11044,7 +11044,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -11074,7 +11074,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -11104,7 +11104,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -11134,7 +11134,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -11164,7 +11164,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -11194,7 +11194,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -11224,7 +11224,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -11254,7 +11254,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -11284,7 +11284,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -11314,7 +11314,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -11344,7 +11344,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -11374,7 +11374,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -11404,7 +11404,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -11434,7 +11434,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -11464,7 +11464,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -11494,7 +11494,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -11524,7 +11524,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -11554,7 +11554,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -11584,7 +11584,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -11614,7 +11614,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -11644,7 +11644,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -11678,7 +11678,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -11712,7 +11712,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -11746,7 +11746,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -11780,7 +11780,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -11814,7 +11814,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -11848,7 +11848,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -11882,7 +11882,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -11916,7 +11916,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -11950,7 +11950,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -11984,7 +11984,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -12018,7 +12018,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -12052,7 +12052,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -12086,7 +12086,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -12120,7 +12120,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -12154,7 +12154,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -12188,7 +12188,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -12222,7 +12222,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -12256,7 +12256,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -12290,7 +12290,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -12324,7 +12324,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -12358,7 +12358,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -12392,7 +12392,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -12426,7 +12426,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -12460,7 +12460,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -12494,7 +12494,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -12528,7 +12528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -12562,7 +12562,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -12596,7 +12596,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -12630,7 +12630,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -12664,7 +12664,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -12698,7 +12698,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -12732,7 +12732,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -12766,7 +12766,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -12800,7 +12800,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -12834,7 +12834,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -12868,7 +12868,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -12902,7 +12902,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -12936,7 +12936,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -12970,7 +12970,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -13004,7 +13004,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -13038,7 +13038,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -13072,7 +13072,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -13106,7 +13106,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -13140,7 +13140,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -13174,7 +13174,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -13208,7 +13208,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -13250,7 +13250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13278,45 +13278,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME00</t>
+          <t>MQME006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>137</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMEA1</t>
+          <t>MQME007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of length-required columns</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MQMEA2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total number of NUMBER columns</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
         <v>44</v>
       </c>
     </row>
@@ -13331,7 +13316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13359,29 +13344,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQME01</t>
+          <t>MQID001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Columns with comments</t>
+          <t>Table names in singular</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>56.20%</t>
+          <t>95.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQME02</t>
+          <t>MQID002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Columns with data type</t>
+          <t>Table with recommended name length</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -13393,29 +13378,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQME03</t>
+          <t>MQID003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Length-required columns with data length</t>
+          <t>Columns with correct prefixes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>84.67%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQME04</t>
+          <t>MQID004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NUMBER columns with valid scale</t>
+          <t>Columns with recommended name size</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -13427,49 +13412,117 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQME05</t>
+          <t>MQID005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Columns with valid num_distinct</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>56.20%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQME06</t>
+          <t>MQID006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Columns with valid num_nulls</t>
+          <t>Table with standard PK prefixes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQME07</t>
+          <t>MQID007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Columns with valid density</t>
+          <t>Table with standard FK prefixes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQID008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Table with standard UK prefixes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQID009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NUMBER columns with valid scale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQID010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns with valid num_distinct</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQID011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns with valid num_nulls</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
